--- a/data/fixtureliga1_23.xlsx
+++ b/data/fixtureliga1_23.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranarahayu\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA47DB43-2280-4A35-AD5B-AEC73C22AA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$E$307</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$307</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="OWhUXmrlbDD9QZdt1t49I04xEkKd7l/RCpDwLbVZlBc="/>
@@ -122,18 +132,12 @@
     <t>PSIS Semarang vs Bhayangkara Presisi Indonesia FC</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs PERSIS Solo</t>
-  </si>
-  <si>
     <t>AREMA FC vs PERSIB Bandung</t>
   </si>
   <si>
     <t>PERSEBAYA Surabaya vs PS Barito Putera</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs Dewa United FC</t>
-  </si>
-  <si>
     <t>PERSITA Tangerang vs PSIS Semarang</t>
   </si>
   <si>
@@ -149,12 +153,6 @@
     <t>Bhayangkara Presisi Indonesia FC vs RANS Nusantara FC</t>
   </si>
   <si>
-    <t>PS Barito Putera vs PSS Sleman Sleman</t>
-  </si>
-  <si>
-    <t>PERSIKABO 1973 vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>PERSIB Bandung vs Dewa United FC</t>
   </si>
   <si>
@@ -179,9 +177,6 @@
     <t>Borneo FC Samarinda vs PS Barito Putera</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs PSIS Semarang</t>
-  </si>
-  <si>
     <t>Dewa United FC vs PERSIK Kediri</t>
   </si>
   <si>
@@ -194,9 +189,6 @@
     <t>Bhayangkara Presisi Indonesia FC vs PERSIKABO 1973</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs PERSIB Bandung</t>
-  </si>
-  <si>
     <t>PERSEBAYA Surabaya vs RANS Nusantara FC</t>
   </si>
   <si>
@@ -215,12 +207,6 @@
     <t>Bali United FC vs Dewa United FC</t>
   </si>
   <si>
-    <t>Bhayangkara Presisi Indonesia FC vs PSM Makassar Makassar</t>
-  </si>
-  <si>
-    <t>RANS Nusantara FC vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>PERSIJA Jakarta vs PERSEBAYA Surabaya</t>
   </si>
   <si>
@@ -230,9 +216,6 @@
     <t>PS Barito Putera vs Madura United FC</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs PERSIK Kediri</t>
-  </si>
-  <si>
     <t>PERSITA Tangerang vs Bhayangkara Presisi Indonesia FC</t>
   </si>
   <si>
@@ -242,9 +225,6 @@
     <t>PERSEBAYA Surabaya vs PERSIKABO 1973</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs PERSIJA Jakarta</t>
-  </si>
-  <si>
     <t>Dewa United FC vs PERSIS Solo</t>
   </si>
   <si>
@@ -257,18 +237,12 @@
     <t>Madura United FC vs PSIS Semarang</t>
   </si>
   <si>
-    <t>PERSITA Tangerang vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>Bali United FC vs PERSIK Kediri</t>
   </si>
   <si>
     <t>Bhayangkara Presisi Indonesia FC vs PERSEBAYA Surabaya</t>
   </si>
   <si>
-    <t>PERSIKABO 1973 vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>PERSIS Solo vs PERSIB Bandung</t>
   </si>
   <si>
@@ -284,9 +258,6 @@
     <t>RANS Nusantara FC vs Madura United FC</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs Bali United FC</t>
-  </si>
-  <si>
     <t>PERSIK Kediri vs PERSIS Solo</t>
   </si>
   <si>
@@ -299,9 +270,6 @@
     <t>PERSIB Bandung vs PS Barito Putera</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs Bhayangkara Presisi Indonesia FC</t>
-  </si>
-  <si>
     <t>Madura United FC vs PERSIJA Jakarta</t>
   </si>
   <si>
@@ -314,9 +282,6 @@
     <t>PERSIKABO 1973 vs Madura United FC</t>
   </si>
   <si>
-    <t>PERSITA Tangerang vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>Bhayangkara Presisi Indonesia FC vs Borneo FC Samarinda</t>
   </si>
   <si>
@@ -335,9 +300,6 @@
     <t>PERSIS Solo vs Bali United FC</t>
   </si>
   <si>
-    <t>PERSEBAYA Surabaya vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>PERSIK Kediri vs PSIS Semarang</t>
   </si>
   <si>
@@ -350,9 +312,6 @@
     <t>Dewa United FC vs PERSIJA Jakarta</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs PERSEBAYA Surabaya</t>
-  </si>
-  <si>
     <t>AREMA FC vs PERSIKABO 1973</t>
   </si>
   <si>
@@ -362,9 +321,6 @@
     <t>Bali United FC vs PS Barito Putera</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs PERSIS Solo</t>
-  </si>
-  <si>
     <t>PERSITA Tangerang vs Madura United FC</t>
   </si>
   <si>
@@ -383,18 +339,12 @@
     <t>RANS Nusantara FC vs PERSIK Kediri</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>PS Barito Putera vs PERSIS Solo</t>
   </si>
   <si>
     <t>PERSEBAYA Surabaya vs Borneo FC Samarinda</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs PS Barito Putera</t>
-  </si>
-  <si>
     <t>Dewa United FC vs Bhayangkara Presisi Indonesia FC</t>
   </si>
   <si>
@@ -413,9 +363,6 @@
     <t>Madura United FC vs PERSEBAYA Surabaya</t>
   </si>
   <si>
-    <t>Borneo FC Samarinda vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>PERSIK Kediri vs PERSIJA Jakarta</t>
   </si>
   <si>
@@ -437,30 +384,18 @@
     <t>Bhayangkara Presisi Indonesia FC vs PERSIB Bandung</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs Borneo FC Samarinda</t>
-  </si>
-  <si>
-    <t>PSS Sleman Sleman vs Madura United FC</t>
-  </si>
-  <si>
     <t>PERSIJA Jakarta vs Bali United FC</t>
   </si>
   <si>
     <t>PS Barito Putera vs RANS Nusantara FC</t>
   </si>
   <si>
-    <t>PSIS Semarang vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>Bali United FC vs PERSIKABO 1973</t>
   </si>
   <si>
     <t>Dewa United FC vs PERSEBAYA Surabaya</t>
   </si>
   <si>
-    <t>AREMA FC vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>PERSIK Kediri vs Bhayangkara Presisi Indonesia FC</t>
   </si>
   <si>
@@ -482,9 +417,6 @@
     <t>PERSIKABO 1973 vs PERSIS Solo</t>
   </si>
   <si>
-    <t>Dewa United FC vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>PERSEBAYA Surabaya vs PERSIB Bandung</t>
   </si>
   <si>
@@ -494,15 +426,9 @@
     <t>PERSITA Tangerang vs PERSIK Kediri</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs Madura United FC</t>
-  </si>
-  <si>
     <t>Bhayangkara Presisi Indonesia FC vs Bali United FC</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs AREMA FC</t>
-  </si>
-  <si>
     <t>PERSIKABO 1973 vs PSIS Semarang</t>
   </si>
   <si>
@@ -512,9 +438,6 @@
     <t>Bhayangkara Presisi Indonesia FC vs PS Barito Putera</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs PERSIK Kediri</t>
-  </si>
-  <si>
     <t>Borneo FC Samarinda vs PERSIB Bandung</t>
   </si>
   <si>
@@ -536,9 +459,6 @@
     <t>AREMA FC vs Madura United FC</t>
   </si>
   <si>
-    <t>PERSIB Bandung vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>PERSIS Solo vs Bhayangkara Presisi Indonesia FC</t>
   </si>
   <si>
@@ -548,21 +468,12 @@
     <t>PSIS Semarang vs PERSIJA Jakarta</t>
   </si>
   <si>
-    <t>RANS Nusantara FC vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>Bali United FC vs PERSITA Tangerang</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs Bali United FC</t>
-  </si>
-  <si>
     <t>AREMA FC vs Dewa United FC</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs PERSIJA Jakarta</t>
-  </si>
-  <si>
     <t>PERSEBAYA Surabaya vs PERSIS Solo</t>
   </si>
   <si>
@@ -587,9 +498,6 @@
     <t>PERSIB Bandung vs AREMA FC</t>
   </si>
   <si>
-    <t>PERSIS Solo vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>PS Barito Putera vs PERSEBAYA Surabaya</t>
   </si>
   <si>
@@ -599,24 +507,15 @@
     <t>PERSIJA Jakarta vs PERSIKABO 1973</t>
   </si>
   <si>
-    <t>Dewa United FC vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>RANS Nusantara FC vs Bhayangkara Presisi Indonesia FC</t>
   </si>
   <si>
     <t>Bali United FC vs Borneo FC Samarinda</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs PERSIKABO 1973</t>
-  </si>
-  <si>
     <t>PERSITA Tangerang vs RANS Nusantara FC</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs PS Barito Putera</t>
-  </si>
-  <si>
     <t>Madura United FC vs Bali United FC</t>
   </si>
   <si>
@@ -635,9 +534,6 @@
     <t>PERSEBAYA Surabaya vs PSIS Semarang</t>
   </si>
   <si>
-    <t>PSIS Semarang vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>PERSIK Kediri vs Dewa United FC</t>
   </si>
   <si>
@@ -659,18 +555,9 @@
     <t>Bali United FC vs AREMA FC</t>
   </si>
   <si>
-    <t>PERSIB Bandung vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>Dewa United FC vs Bali United FC</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs Bhayangkara Presisi Indonesia FC</t>
-  </si>
-  <si>
-    <t>PSS Sleman Sleman vs RANS Nusantara FC</t>
-  </si>
-  <si>
     <t>PERSEBAYA Surabaya vs PERSIJA Jakarta</t>
   </si>
   <si>
@@ -695,9 +582,6 @@
     <t>PSIS Semarang vs Madura United FC</t>
   </si>
   <si>
-    <t>PERSIJA Jakarta vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>RANS Nusantara FC vs Borneo FC Samarinda</t>
   </si>
   <si>
@@ -710,18 +594,9 @@
     <t>Bhayangkara Presisi Indonesia FC vs PERSITA Tangerang</t>
   </si>
   <si>
-    <t>PERSIK Kediri vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>Bali United FC vs PERSIB Bandung</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs PERSITA Tangerang</t>
-  </si>
-  <si>
-    <t>PSS Sleman Sleman vs PERSIKABO 1973</t>
-  </si>
-  <si>
     <t>PERSEBAYA Surabaya vs Bhayangkara Presisi Indonesia FC</t>
   </si>
   <si>
@@ -746,9 +621,6 @@
     <t>PERSIKABO 1973 vs Borneo FC Samarinda</t>
   </si>
   <si>
-    <t>Bhayangkara Presisi Indonesia FC vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>PERSIJA Jakarta vs Madura United FC</t>
   </si>
   <si>
@@ -767,9 +639,6 @@
     <t>PERSIS Solo vs PERSIK Kediri</t>
   </si>
   <si>
-    <t>Bali United FC vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>AREMA FC vs PERSIJA Jakarta</t>
   </si>
   <si>
@@ -779,9 +648,6 @@
     <t>Madura United FC vs PERSIKABO 1973</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs PERSITA Tangerang</t>
-  </si>
-  <si>
     <t>Dewa United FC vs RANS Nusantara FC</t>
   </si>
   <si>
@@ -791,9 +657,6 @@
     <t>PERSIK Kediri vs PS Barito Putera</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs PERSEBAYA Surabaya</t>
-  </si>
-  <si>
     <t>PERSIB Bandung vs PSIS Semarang</t>
   </si>
   <si>
@@ -815,15 +678,9 @@
     <t>RANS Nusantara FC vs PERSIB Bandung</t>
   </si>
   <si>
-    <t>PERSEBAYA Surabaya vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>PS Barito Putera vs Bali United FC</t>
   </si>
   <si>
-    <t>PERSIS Solo vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>Dewa United FC vs PERSIKABO 1973</t>
   </si>
   <si>
@@ -845,9 +702,6 @@
     <t>PERSIB Bandung vs PERSIJA Jakarta</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>Bali United FC vs PSIS Semarang</t>
   </si>
   <si>
@@ -857,18 +711,12 @@
     <t>PERSEBAYA Surabaya vs Madura United FC</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs Borneo FC Samarinda</t>
-  </si>
-  <si>
     <t>PSIS Semarang vs PERSIS Solo</t>
   </si>
   <si>
     <t>PERSIKABO 1973 vs PERSIB Bandung</t>
   </si>
   <si>
-    <t>PS Barito Putera vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>PERSIJA Jakarta vs PERSIK Kediri</t>
   </si>
   <si>
@@ -893,18 +741,12 @@
     <t>PS Barito Putera vs PSIS Semarang</t>
   </si>
   <si>
-    <t>Madura United FC vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>Bali United FC vs PERSIJA Jakarta</t>
   </si>
   <si>
     <t>PERSIS Solo vs RANS Nusantara FC</t>
   </si>
   <si>
-    <t>Borneo FC Samarinda vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>PERSEBAYA Surabaya vs Dewa United FC</t>
   </si>
   <si>
@@ -914,18 +756,12 @@
     <t>PERSITA Tangerang vs PERSIB Bandung</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs AREMA FC</t>
-  </si>
-  <si>
     <t>RANS Nusantara FC vs PS Barito Putera</t>
   </si>
   <si>
     <t>Borneo FC Samarinda vs Madura United FC</t>
   </si>
   <si>
-    <t>PSM Makassar Makassar vs PSIS Semarang</t>
-  </si>
-  <si>
     <t>PERSIJA Jakarta vs PERSIS Solo</t>
   </si>
   <si>
@@ -935,15 +771,9 @@
     <t>Borneo FC Samarinda vs AREMA FC</t>
   </si>
   <si>
-    <t>Madura United FC vs PSM Makassar Makassar</t>
-  </si>
-  <si>
     <t>PS Barito Putera vs PERSIJA Jakarta</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs Dewa United FC</t>
-  </si>
-  <si>
     <t>PERSIK Kediri vs PERSITA Tangerang</t>
   </si>
   <si>
@@ -962,12 +792,6 @@
     <t>Dewa United FC vs Madura United FC</t>
   </si>
   <si>
-    <t>AREMA FC vs PSM Makassar Makassar</t>
-  </si>
-  <si>
-    <t>PERSIK Kediri vs PSS Sleman Sleman</t>
-  </si>
-  <si>
     <t>PERSIB Bandung vs Borneo FC Samarinda</t>
   </si>
   <si>
@@ -1007,30 +831,218 @@
     <t>PERSIJA Jakarta vs PSIS Semarang</t>
   </si>
   <si>
-    <t>PSS Sleman Sleman vs PERSIB Bandung</t>
-  </si>
-  <si>
-    <t>PSM Makassar Makassar vs RANS Nusantara FC</t>
+    <t>PSM Makassar vs Dewa United FC</t>
+  </si>
+  <si>
+    <t>PERSIKABO 1973 vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs PERSIB Bandung</t>
+  </si>
+  <si>
+    <t>Bhayangkara Presisi Indonesia FC vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs PERSIK Kediri</t>
+  </si>
+  <si>
+    <t>PERSITA Tangerang vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs Bali United FC</t>
+  </si>
+  <si>
+    <t>PERSEBAYA Surabaya vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs PERSIS Solo</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs PS Barito Putera</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs Borneo FC Samarinda</t>
+  </si>
+  <si>
+    <t>PSIS Semarang vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs Madura United FC</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs AREMA FC</t>
+  </si>
+  <si>
+    <t>RANS Nusantara FC vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs PERSIJA Jakarta</t>
+  </si>
+  <si>
+    <t>Dewa United FC vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs PERSIKABO 1973</t>
+  </si>
+  <si>
+    <t>PERSIB Bandung vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs Bhayangkara Presisi Indonesia FC</t>
+  </si>
+  <si>
+    <t>PERSIK Kediri vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs PERSITA Tangerang</t>
+  </si>
+  <si>
+    <t>Bali United FC vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs PERSEBAYA Surabaya</t>
+  </si>
+  <si>
+    <t>PERSIS Solo vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PS Barito Putera vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>Borneo FC Samarinda vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs PSIS Semarang</t>
+  </si>
+  <si>
+    <t>Madura United FC vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>AREMA FC vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs RANS Nusantara FC</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs PERSIS Solo</t>
+  </si>
+  <si>
+    <t>PS Barito Putera vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs PSIS Semarang</t>
+  </si>
+  <si>
+    <t>RANS Nusantara FC vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs PERSIJA Jakarta</t>
+  </si>
+  <si>
+    <t>PERSIKABO 1973 vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs Bhayangkara Presisi Indonesia FC</t>
+  </si>
+  <si>
+    <t>PERSITA Tangerang vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs PERSEBAYA Surabaya</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs PSM Makassar</t>
+  </si>
+  <si>
+    <t>Borneo FC Samarinda vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs Madura United FC</t>
+  </si>
+  <si>
+    <t>AREMA FC vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>Dewa United FC vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs PERSIK Kediri</t>
+  </si>
+  <si>
+    <t>PERSIB Bandung vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs Bali United FC</t>
+  </si>
+  <si>
+    <t>PERSIS Solo vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs PS Barito Putera</t>
+  </si>
+  <si>
+    <t>PSIS Semarang vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs RANS Nusantara FC</t>
+  </si>
+  <si>
+    <t>PERSIJA Jakarta vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs PERSIKABO 1973</t>
+  </si>
+  <si>
+    <t>Bhayangkara Presisi Indonesia FC vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs PERSITA Tangerang</t>
+  </si>
+  <si>
+    <t>PERSEBAYA Surabaya vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSM Makassar vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs Borneo FC Samarinda</t>
+  </si>
+  <si>
+    <t>Madura United FC vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs AREMA FC</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs Dewa United FC</t>
+  </si>
+  <si>
+    <t>PERSIK Kediri vs PSS Sleman</t>
+  </si>
+  <si>
+    <t>PSS Sleman vs PERSIB Bandung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1041,7 +1053,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1051,7 +1063,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1065,42 +1083,42 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1290,29 +1308,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="4" max="4" width="8.71"/>
-    <col customWidth="1" min="5" max="5" width="10.57"/>
-    <col customWidth="1" min="6" max="6" width="48.86"/>
-    <col customWidth="1" min="7" max="27" width="8.71"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" customWidth="1"/>
+    <col min="7" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,9 +1352,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1343,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -1352,9 +1372,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1363,7 +1383,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -1372,9 +1392,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -1383,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
@@ -1392,9 +1412,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -1403,7 +1423,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
@@ -1412,9 +1432,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
@@ -1423,7 +1443,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
@@ -1432,9 +1452,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>2.0230703E7</v>
+        <v>20230703</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>22</v>
@@ -1443,7 +1463,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
@@ -1452,9 +1472,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2.0230703E7</v>
+        <v>20230703</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
@@ -1463,7 +1483,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
@@ -1472,9 +1492,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2.0230703E7</v>
+        <v>20230703</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>28</v>
@@ -1483,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -1492,9 +1512,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>2.0230703E7</v>
+        <v>20230703</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>31</v>
@@ -1503,7 +1523,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>8</v>
@@ -1512,9 +1532,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>2.0230707E7</v>
+        <v>20230707</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1523,18 +1543,18 @@
         <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>2.0230707E7</v>
+        <v>20230707</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
@@ -1543,18 +1563,18 @@
         <v>16</v>
       </c>
       <c r="D12" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>2.0230708E7</v>
+        <v>20230708</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -1563,18 +1583,18 @@
         <v>19</v>
       </c>
       <c r="D13" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>2.0230708E7</v>
+        <v>20230708</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
@@ -1583,18 +1603,18 @@
         <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>2.0230708E7</v>
+        <v>20230708</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -1603,18 +1623,18 @@
         <v>31</v>
       </c>
       <c r="D15" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>2.0230708E7</v>
+        <v>20230708</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
@@ -1623,18 +1643,18 @@
         <v>6</v>
       </c>
       <c r="D16" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>2.0230709E7</v>
+        <v>20230709</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -1643,18 +1663,18 @@
         <v>25</v>
       </c>
       <c r="D17" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>2.0230709E7</v>
+        <v>20230709</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -1663,18 +1683,18 @@
         <v>28</v>
       </c>
       <c r="D18" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>2.0230709E7</v>
+        <v>20230709</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>32</v>
@@ -1683,18 +1703,18 @@
         <v>22</v>
       </c>
       <c r="D19" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>2.0230714E7</v>
+        <v>20230714</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
@@ -1703,18 +1723,18 @@
         <v>7</v>
       </c>
       <c r="D20" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>2.0230714E7</v>
+        <v>20230714</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>23</v>
@@ -1723,18 +1743,18 @@
         <v>29</v>
       </c>
       <c r="D21" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>2.0230714E7</v>
+        <v>20230714</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
@@ -1743,18 +1763,18 @@
         <v>13</v>
       </c>
       <c r="D22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>2.0230715E7</v>
+        <v>20230715</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>25</v>
@@ -1763,18 +1783,18 @@
         <v>14</v>
       </c>
       <c r="D23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>2.0230715E7</v>
+        <v>20230715</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>22</v>
@@ -1783,18 +1803,18 @@
         <v>20</v>
       </c>
       <c r="D24" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>2.0230715E7</v>
+        <v>20230715</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>10</v>
@@ -1803,18 +1823,18 @@
         <v>26</v>
       </c>
       <c r="D25" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>2.0230715E7</v>
+        <v>20230715</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>6</v>
@@ -1823,18 +1843,18 @@
         <v>17</v>
       </c>
       <c r="D26" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>2.0230716E7</v>
+        <v>20230716</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>31</v>
@@ -1843,18 +1863,18 @@
         <v>11</v>
       </c>
       <c r="D27" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>2.0230716E7</v>
+        <v>20230716</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>28</v>
@@ -1863,18 +1883,18 @@
         <v>32</v>
       </c>
       <c r="D28" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>2.0230721E7</v>
+        <v>20230721</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>26</v>
@@ -1883,18 +1903,18 @@
         <v>19</v>
       </c>
       <c r="D29" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>2.0230721E7</v>
+        <v>20230721</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>7</v>
@@ -1903,18 +1923,18 @@
         <v>31</v>
       </c>
       <c r="D30" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>2.0230721E7</v>
+        <v>20230721</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -1923,18 +1943,18 @@
         <v>25</v>
       </c>
       <c r="D31" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>2.0230721E7</v>
+        <v>20230721</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -1943,18 +1963,18 @@
         <v>6</v>
       </c>
       <c r="D32" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2.0230722E7</v>
+        <v>20230722</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>20</v>
@@ -1963,18 +1983,18 @@
         <v>28</v>
       </c>
       <c r="D33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>2.0230722E7</v>
+        <v>20230722</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>32</v>
@@ -1983,18 +2003,18 @@
         <v>23</v>
       </c>
       <c r="D34" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>2.0230722E7</v>
+        <v>20230722</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>29</v>
@@ -2003,18 +2023,18 @@
         <v>16</v>
       </c>
       <c r="D35" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>2.0230723E7</v>
+        <v>20230723</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>11</v>
@@ -2023,18 +2043,18 @@
         <v>22</v>
       </c>
       <c r="D36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>2.0230723E7</v>
+        <v>20230723</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
@@ -2043,18 +2063,18 @@
         <v>10</v>
       </c>
       <c r="D37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>2.0230728E7</v>
+        <v>20230728</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>31</v>
@@ -2063,18 +2083,18 @@
         <v>26</v>
       </c>
       <c r="D38" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>2.0230728E7</v>
+        <v>20230728</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>23</v>
@@ -2083,18 +2103,18 @@
         <v>20</v>
       </c>
       <c r="D39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>2.0230728E7</v>
+        <v>20230728</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>25</v>
@@ -2103,18 +2123,18 @@
         <v>16</v>
       </c>
       <c r="D40" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>2.0230729E7</v>
+        <v>20230729</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>6</v>
@@ -2123,18 +2143,18 @@
         <v>13</v>
       </c>
       <c r="D41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>2.0230729E7</v>
+        <v>20230729</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>32</v>
@@ -2143,18 +2163,18 @@
         <v>29</v>
       </c>
       <c r="D42" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>2.023073E7</v>
+        <v>20230730</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>22</v>
@@ -2163,18 +2183,18 @@
         <v>7</v>
       </c>
       <c r="D43" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>2.023073E7</v>
+        <v>20230730</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>28</v>
@@ -2183,18 +2203,18 @@
         <v>11</v>
       </c>
       <c r="D44" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>2.023073E7</v>
+        <v>20230730</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>10</v>
@@ -2203,18 +2223,18 @@
         <v>14</v>
       </c>
       <c r="D45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>2.023073E7</v>
+        <v>20230730</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>19</v>
@@ -2223,18 +2243,18 @@
         <v>17</v>
       </c>
       <c r="D46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>2.0230803E7</v>
+        <v>20230803</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>29</v>
@@ -2243,18 +2263,18 @@
         <v>25</v>
       </c>
       <c r="D47" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>2.0230803E7</v>
+        <v>20230803</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>20</v>
@@ -2263,18 +2283,18 @@
         <v>32</v>
       </c>
       <c r="D48" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>2.0230803E7</v>
+        <v>20230803</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>16</v>
@@ -2283,18 +2303,18 @@
         <v>6</v>
       </c>
       <c r="D49" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>2.0230804E7</v>
+        <v>20230804</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>11</v>
@@ -2303,18 +2323,18 @@
         <v>23</v>
       </c>
       <c r="D50" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>2.0230804E7</v>
+        <v>20230804</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>7</v>
@@ -2323,18 +2343,18 @@
         <v>28</v>
       </c>
       <c r="D51" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>2.0230804E7</v>
+        <v>20230804</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>13</v>
@@ -2343,18 +2363,18 @@
         <v>10</v>
       </c>
       <c r="D52" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>2.0230804E7</v>
+        <v>20230804</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>26</v>
@@ -2363,18 +2383,18 @@
         <v>22</v>
       </c>
       <c r="D53" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>2.0230805E7</v>
+        <v>20230805</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>14</v>
@@ -2383,18 +2403,18 @@
         <v>19</v>
       </c>
       <c r="D54" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>2.0230805E7</v>
+        <v>20230805</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>17</v>
@@ -2403,18 +2423,18 @@
         <v>31</v>
       </c>
       <c r="D55" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>2.0230807E7</v>
+        <v>20230807</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>20</v>
@@ -2423,18 +2443,18 @@
         <v>29</v>
       </c>
       <c r="D56" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>2.0230807E7</v>
+        <v>20230807</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>6</v>
@@ -2443,18 +2463,18 @@
         <v>25</v>
       </c>
       <c r="D57" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>2.0230808E7</v>
+        <v>20230808</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>32</v>
@@ -2463,18 +2483,18 @@
         <v>11</v>
       </c>
       <c r="D58" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>2.0230808E7</v>
+        <v>20230808</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>23</v>
@@ -2483,18 +2503,18 @@
         <v>7</v>
       </c>
       <c r="D59" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>2.0230808E7</v>
+        <v>20230808</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>10</v>
@@ -2503,18 +2523,18 @@
         <v>16</v>
       </c>
       <c r="D60" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>2.0230809E7</v>
+        <v>20230809</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>19</v>
@@ -2523,18 +2543,18 @@
         <v>13</v>
       </c>
       <c r="D61" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>2.0230809E7</v>
+        <v>20230809</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>31</v>
@@ -2543,18 +2563,18 @@
         <v>14</v>
       </c>
       <c r="D62" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>2.0230809E7</v>
+        <v>20230809</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>28</v>
@@ -2563,18 +2583,18 @@
         <v>26</v>
       </c>
       <c r="D63" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>2.0230809E7</v>
+        <v>20230809</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>22</v>
@@ -2583,18 +2603,18 @@
         <v>17</v>
       </c>
       <c r="D64" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>2.0230811E7</v>
+        <v>20230811</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>29</v>
@@ -2603,18 +2623,18 @@
         <v>6</v>
       </c>
       <c r="D65" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>2.0230812E7</v>
+        <v>20230812</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>25</v>
@@ -2623,18 +2643,18 @@
         <v>10</v>
       </c>
       <c r="D66" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>2.0230812E7</v>
+        <v>20230812</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>11</v>
@@ -2643,18 +2663,18 @@
         <v>20</v>
       </c>
       <c r="D67" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>2.0230813E7</v>
+        <v>20230813</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>26</v>
@@ -2663,18 +2683,18 @@
         <v>23</v>
       </c>
       <c r="D68" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>2.0230813E7</v>
+        <v>20230813</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>16</v>
@@ -2683,18 +2703,18 @@
         <v>19</v>
       </c>
       <c r="D69" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>2.0230813E7</v>
+        <v>20230813</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>7</v>
@@ -2703,18 +2723,18 @@
         <v>32</v>
       </c>
       <c r="D70" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>2.0230813E7</v>
+        <v>20230813</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>17</v>
@@ -2723,18 +2743,18 @@
         <v>28</v>
       </c>
       <c r="D71" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>2.0230814E7</v>
+        <v>20230814</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>13</v>
@@ -2743,18 +2763,18 @@
         <v>31</v>
       </c>
       <c r="D72" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>2.0230814E7</v>
+        <v>20230814</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>14</v>
@@ -2763,18 +2783,18 @@
         <v>22</v>
       </c>
       <c r="D73" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>2.0230818E7</v>
+        <v>20230818</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>23</v>
@@ -2783,18 +2803,18 @@
         <v>17</v>
       </c>
       <c r="D74" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>2.0230818E7</v>
+        <v>20230818</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>20</v>
@@ -2803,18 +2823,18 @@
         <v>7</v>
       </c>
       <c r="D75" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>2.0230818E7</v>
+        <v>20230818</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>32</v>
@@ -2823,18 +2843,18 @@
         <v>26</v>
       </c>
       <c r="D76" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>2.0230819E7</v>
+        <v>20230819</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>22</v>
@@ -2843,18 +2863,18 @@
         <v>13</v>
       </c>
       <c r="D77" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>2.0230819E7</v>
+        <v>20230819</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>28</v>
@@ -2863,18 +2883,18 @@
         <v>14</v>
       </c>
       <c r="D78" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>2.0230819E7</v>
+        <v>20230819</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>31</v>
@@ -2883,18 +2903,18 @@
         <v>16</v>
       </c>
       <c r="D79" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>2.0230819E7</v>
+        <v>20230819</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>19</v>
@@ -2903,18 +2923,18 @@
         <v>25</v>
       </c>
       <c r="D80" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>2.023082E7</v>
+        <v>20230820</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>10</v>
@@ -2923,18 +2943,18 @@
         <v>6</v>
       </c>
       <c r="D81" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>2.023082E7</v>
+        <v>20230820</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>11</v>
@@ -2943,18 +2963,18 @@
         <v>29</v>
       </c>
       <c r="D82" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>2.0230825E7</v>
+        <v>20230825</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>25</v>
@@ -2963,18 +2983,18 @@
         <v>31</v>
       </c>
       <c r="D83" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>2.0230825E7</v>
+        <v>20230825</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>17</v>
@@ -2983,18 +3003,18 @@
         <v>32</v>
       </c>
       <c r="D84" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>2.0230825E7</v>
+        <v>20230825</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>26</v>
@@ -3003,18 +3023,18 @@
         <v>20</v>
       </c>
       <c r="D85" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>2.0230826E7</v>
+        <v>20230826</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>13</v>
@@ -3023,18 +3043,18 @@
         <v>28</v>
       </c>
       <c r="D86" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>2.0230826E7</v>
+        <v>20230826</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>7</v>
@@ -3043,18 +3063,18 @@
         <v>11</v>
       </c>
       <c r="D87" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>2.0230826E7</v>
+        <v>20230826</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>14</v>
@@ -3063,18 +3083,18 @@
         <v>23</v>
       </c>
       <c r="D88" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>2.0230826E7</v>
+        <v>20230826</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>16</v>
@@ -3083,18 +3103,18 @@
         <v>22</v>
       </c>
       <c r="D89" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>2.0230827E7</v>
+        <v>20230827</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>6</v>
@@ -3103,18 +3123,18 @@
         <v>19</v>
       </c>
       <c r="D90" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>2.0230827E7</v>
+        <v>20230827</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>29</v>
@@ -3123,18 +3143,18 @@
         <v>10</v>
       </c>
       <c r="D91" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>2.0230901E7</v>
+        <v>20230901</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>20</v>
@@ -3143,18 +3163,18 @@
         <v>17</v>
       </c>
       <c r="D92" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>2.0230901E7</v>
+        <v>20230901</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>23</v>
@@ -3163,18 +3183,18 @@
         <v>13</v>
       </c>
       <c r="D93" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>2.0230901E7</v>
+        <v>20230901</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>32</v>
@@ -3183,18 +3203,18 @@
         <v>14</v>
       </c>
       <c r="D94" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>2.0230902E7</v>
+        <v>20230902</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>28</v>
@@ -3203,18 +3223,18 @@
         <v>16</v>
       </c>
       <c r="D95" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>2.0230902E7</v>
+        <v>20230902</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>31</v>
@@ -3223,18 +3243,18 @@
         <v>6</v>
       </c>
       <c r="D96" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>2.0230902E7</v>
+        <v>20230902</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>22</v>
@@ -3243,18 +3263,18 @@
         <v>25</v>
       </c>
       <c r="D97" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>2.0230903E7</v>
+        <v>20230903</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>7</v>
@@ -3263,18 +3283,18 @@
         <v>29</v>
       </c>
       <c r="D98" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>2.0230903E7</v>
+        <v>20230903</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>19</v>
@@ -3283,18 +3303,18 @@
         <v>10</v>
       </c>
       <c r="D99" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>2.0230903E7</v>
+        <v>20230903</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>11</v>
@@ -3303,18 +3323,18 @@
         <v>26</v>
       </c>
       <c r="D100" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>2.0230915E7</v>
+        <v>20230915</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>29</v>
@@ -3323,18 +3343,18 @@
         <v>19</v>
       </c>
       <c r="D101" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>2.0230915E7</v>
+        <v>20230915</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>13</v>
@@ -3343,18 +3363,18 @@
         <v>32</v>
       </c>
       <c r="D102" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>2.0230915E7</v>
+        <v>20230915</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>6</v>
@@ -3363,18 +3383,18 @@
         <v>22</v>
       </c>
       <c r="D103" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>2.0230916E7</v>
+        <v>20230916</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>14</v>
@@ -3383,18 +3403,18 @@
         <v>20</v>
       </c>
       <c r="D104" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>2.0230916E7</v>
+        <v>20230916</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>16</v>
@@ -3403,18 +3423,18 @@
         <v>23</v>
       </c>
       <c r="D105" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>2.0230916E7</v>
+        <v>20230916</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>10</v>
@@ -3423,18 +3443,18 @@
         <v>31</v>
       </c>
       <c r="D106" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>2.0230917E7</v>
+        <v>20230917</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>17</v>
@@ -3443,18 +3463,18 @@
         <v>11</v>
       </c>
       <c r="D107" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>2.0230917E7</v>
+        <v>20230917</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>26</v>
@@ -3463,18 +3483,18 @@
         <v>7</v>
       </c>
       <c r="D108" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>2.0230917E7</v>
+        <v>20230917</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>25</v>
@@ -3483,18 +3503,18 @@
         <v>28</v>
       </c>
       <c r="D109" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>2.0230922E7</v>
+        <v>20230922</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>22</v>
@@ -3503,18 +3523,18 @@
         <v>10</v>
       </c>
       <c r="D110" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>2.0230922E7</v>
+        <v>20230922</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>20</v>
@@ -3523,18 +3543,18 @@
         <v>13</v>
       </c>
       <c r="D111" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>2.0230922E7</v>
+        <v>20230922</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>31</v>
@@ -3543,18 +3563,18 @@
         <v>19</v>
       </c>
       <c r="D112" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>2.0230923E7</v>
+        <v>20230923</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>23</v>
@@ -3563,18 +3583,18 @@
         <v>25</v>
       </c>
       <c r="D113" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>2.0230923E7</v>
+        <v>20230923</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>11</v>
@@ -3583,18 +3603,18 @@
         <v>14</v>
       </c>
       <c r="D114" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>2.0230923E7</v>
+        <v>20230923</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>32</v>
@@ -3603,18 +3623,18 @@
         <v>16</v>
       </c>
       <c r="D115" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>2.0230924E7</v>
+        <v>20230924</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>29</v>
@@ -3623,18 +3643,18 @@
         <v>26</v>
       </c>
       <c r="D116" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>2.0230924E7</v>
+        <v>20230924</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>7</v>
@@ -3643,18 +3663,18 @@
         <v>17</v>
       </c>
       <c r="D117" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>2.0230924E7</v>
+        <v>20230924</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>28</v>
@@ -3663,18 +3683,18 @@
         <v>6</v>
       </c>
       <c r="D118" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>2.0230929E7</v>
+        <v>20230929</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>19</v>
@@ -3683,18 +3703,18 @@
         <v>22</v>
       </c>
       <c r="D119" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>2.0230929E7</v>
+        <v>20230929</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>31</v>
@@ -3703,18 +3723,18 @@
         <v>29</v>
       </c>
       <c r="D120" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>2.0230929E7</v>
+        <v>20230929</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>6</v>
@@ -3723,18 +3743,18 @@
         <v>23</v>
       </c>
       <c r="D121" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>2.023093E7</v>
+        <v>20230930</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>13</v>
@@ -3743,18 +3763,18 @@
         <v>11</v>
       </c>
       <c r="D122" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>2.023093E7</v>
+        <v>20230930</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>14</v>
@@ -3763,18 +3783,18 @@
         <v>7</v>
       </c>
       <c r="D123" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>2.023093E7</v>
+        <v>20230930</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>25</v>
@@ -3783,18 +3803,18 @@
         <v>32</v>
       </c>
       <c r="D124" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>2.023093E7</v>
+        <v>20230930</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>10</v>
@@ -3803,18 +3823,18 @@
         <v>28</v>
       </c>
       <c r="D125" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>2.0231001E7</v>
+        <v>20231001</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>17</v>
@@ -3823,18 +3843,18 @@
         <v>26</v>
       </c>
       <c r="D126" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>2.0231001E7</v>
+        <v>20231001</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>16</v>
@@ -3843,18 +3863,18 @@
         <v>20</v>
       </c>
       <c r="D127" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>2.0231006E7</v>
+        <v>20231006</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>22</v>
@@ -3863,18 +3883,18 @@
         <v>31</v>
       </c>
       <c r="D128" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>2.0231006E7</v>
+        <v>20231006</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>14</v>
@@ -3883,18 +3903,18 @@
         <v>26</v>
       </c>
       <c r="D129" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>2.0231006E7</v>
+        <v>20231006</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>23</v>
@@ -3903,18 +3923,18 @@
         <v>10</v>
       </c>
       <c r="D130" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>2.0231006E7</v>
+        <v>20231006</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>13</v>
@@ -3923,18 +3943,18 @@
         <v>7</v>
       </c>
       <c r="D131" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>2.0231007E7</v>
+        <v>20231007</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>11</v>
@@ -3943,18 +3963,18 @@
         <v>16</v>
       </c>
       <c r="D132" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>2.0231007E7</v>
+        <v>20231007</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>28</v>
@@ -3963,18 +3983,18 @@
         <v>19</v>
       </c>
       <c r="D133" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>2.0231008E7</v>
+        <v>20231008</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>20</v>
@@ -3983,18 +4003,18 @@
         <v>25</v>
       </c>
       <c r="D134" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>2.0231008E7</v>
+        <v>20231008</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>29</v>
@@ -4003,18 +4023,18 @@
         <v>17</v>
       </c>
       <c r="D135" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>2.0231008E7</v>
+        <v>20231008</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>32</v>
@@ -4023,18 +4043,18 @@
         <v>6</v>
       </c>
       <c r="D136" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>2.023102E7</v>
+        <v>20231020</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>29</v>
@@ -4043,18 +4063,18 @@
         <v>14</v>
       </c>
       <c r="D137" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>2.023102E7</v>
+        <v>20231020</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>23</v>
@@ -4063,18 +4083,18 @@
         <v>31</v>
       </c>
       <c r="D138" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>2.023102E7</v>
+        <v>20231020</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>11</v>
@@ -4083,18 +4103,18 @@
         <v>6</v>
       </c>
       <c r="D139" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>2.0231021E7</v>
+        <v>20231021</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>32</v>
@@ -4103,18 +4123,18 @@
         <v>19</v>
       </c>
       <c r="D140" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>2.0231021E7</v>
+        <v>20231021</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>7</v>
@@ -4123,18 +4143,18 @@
         <v>25</v>
       </c>
       <c r="D141" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>2.0231021E7</v>
+        <v>20231021</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>26</v>
@@ -4143,18 +4163,18 @@
         <v>16</v>
       </c>
       <c r="D142" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>2.0231022E7</v>
+        <v>20231022</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>20</v>
@@ -4163,18 +4183,18 @@
         <v>10</v>
       </c>
       <c r="D143" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>2.0231022E7</v>
+        <v>20231022</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>17</v>
@@ -4183,18 +4203,18 @@
         <v>13</v>
       </c>
       <c r="D144" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>2.0231022E7</v>
+        <v>20231022</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>28</v>
@@ -4203,18 +4223,18 @@
         <v>22</v>
       </c>
       <c r="D145" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>2.0231028E7</v>
+        <v>20231028</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>19</v>
@@ -4223,18 +4243,18 @@
         <v>23</v>
       </c>
       <c r="D146" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>2.0231028E7</v>
+        <v>20231028</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>25</v>
@@ -4243,18 +4263,18 @@
         <v>11</v>
       </c>
       <c r="D147" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>2.0231028E7</v>
+        <v>20231028</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>14</v>
@@ -4263,18 +4283,18 @@
         <v>17</v>
       </c>
       <c r="D148" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>2.0231028E7</v>
+        <v>20231028</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>16</v>
@@ -4283,18 +4303,18 @@
         <v>7</v>
       </c>
       <c r="D149" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>2.0231029E7</v>
+        <v>20231029</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>10</v>
@@ -4303,18 +4323,18 @@
         <v>32</v>
       </c>
       <c r="D150" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>2.0231029E7</v>
+        <v>20231029</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>26</v>
@@ -4323,18 +4343,18 @@
         <v>13</v>
       </c>
       <c r="D151" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>2.0231029E7</v>
+        <v>20231029</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>31</v>
@@ -4343,18 +4363,18 @@
         <v>28</v>
       </c>
       <c r="D152" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>2.023103E7</v>
+        <v>20231030</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>22</v>
@@ -4363,18 +4383,18 @@
         <v>29</v>
       </c>
       <c r="D153" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>2.023103E7</v>
+        <v>20231030</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>6</v>
@@ -4383,18 +4403,18 @@
         <v>20</v>
       </c>
       <c r="D154" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>2.0231103E7</v>
+        <v>20231103</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>7</v>
@@ -4403,18 +4423,18 @@
         <v>6</v>
       </c>
       <c r="D155" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>2.0231103E7</v>
+        <v>20231103</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>14</v>
@@ -4423,18 +4443,18 @@
         <v>13</v>
       </c>
       <c r="D156" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>2.0231103E7</v>
+        <v>20231103</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>29</v>
@@ -4443,18 +4463,18 @@
         <v>28</v>
       </c>
       <c r="D157" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>2.0231104E7</v>
+        <v>20231104</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>11</v>
@@ -4463,18 +4483,18 @@
         <v>10</v>
       </c>
       <c r="D158" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>2.0231104E7</v>
+        <v>20231104</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>26</v>
@@ -4483,18 +4503,18 @@
         <v>25</v>
       </c>
       <c r="D159" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>2.0231104E7</v>
+        <v>20231104</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>17</v>
@@ -4503,18 +4523,18 @@
         <v>16</v>
       </c>
       <c r="D160" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>2.0231105E7</v>
+        <v>20231105</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>23</v>
@@ -4523,18 +4543,18 @@
         <v>22</v>
       </c>
       <c r="D161" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>2.0231105E7</v>
+        <v>20231105</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>20</v>
@@ -4543,18 +4563,18 @@
         <v>19</v>
       </c>
       <c r="D162" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>2.0231105E7</v>
+        <v>20231105</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>32</v>
@@ -4563,18 +4583,18 @@
         <v>31</v>
       </c>
       <c r="D163" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>2.023111E7</v>
+        <v>20231110</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>25</v>
@@ -4583,18 +4603,18 @@
         <v>17</v>
       </c>
       <c r="D164" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>2.023111E7</v>
+        <v>20231110</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>16</v>
@@ -4603,18 +4623,18 @@
         <v>14</v>
       </c>
       <c r="D165" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>2.023111E7</v>
+        <v>20231110</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>10</v>
@@ -4623,18 +4643,18 @@
         <v>7</v>
       </c>
       <c r="D166" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>2.0231111E7</v>
+        <v>20231111</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>19</v>
@@ -4643,18 +4663,18 @@
         <v>11</v>
       </c>
       <c r="D167" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>2.0231111E7</v>
+        <v>20231111</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>31</v>
@@ -4663,18 +4683,18 @@
         <v>20</v>
       </c>
       <c r="D168" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>2.0231111E7</v>
+        <v>20231111</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>28</v>
@@ -4683,18 +4703,18 @@
         <v>23</v>
       </c>
       <c r="D169" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>2.0231112E7</v>
+        <v>20231112</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>13</v>
@@ -4703,18 +4723,18 @@
         <v>29</v>
       </c>
       <c r="D170" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>2.0231112E7</v>
+        <v>20231112</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>22</v>
@@ -4723,18 +4743,18 @@
         <v>32</v>
       </c>
       <c r="D171" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>2.0231112E7</v>
+        <v>20231112</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>6</v>
@@ -4743,18 +4763,18 @@
         <v>26</v>
       </c>
       <c r="D172" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>2.0231124E7</v>
+        <v>20231124</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>29</v>
@@ -4763,18 +4783,18 @@
         <v>23</v>
       </c>
       <c r="D173" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>2.0231124E7</v>
+        <v>20231124</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>20</v>
@@ -4783,18 +4803,18 @@
         <v>22</v>
       </c>
       <c r="D174" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>2.0231124E7</v>
+        <v>20231124</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>7</v>
@@ -4803,18 +4823,18 @@
         <v>19</v>
       </c>
       <c r="D175" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <v>2.0231124E7</v>
+        <v>20231124</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>17</v>
@@ -4823,18 +4843,18 @@
         <v>6</v>
       </c>
       <c r="D176" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>2.0231125E7</v>
+        <v>20231125</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>26</v>
@@ -4843,18 +4863,18 @@
         <v>10</v>
       </c>
       <c r="D177" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>2.0231125E7</v>
+        <v>20231125</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>14</v>
@@ -4863,18 +4883,18 @@
         <v>25</v>
       </c>
       <c r="D178" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>2.0231125E7</v>
+        <v>20231125</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>32</v>
@@ -4883,18 +4903,18 @@
         <v>28</v>
       </c>
       <c r="D179" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>2.0231126E7</v>
+        <v>20231126</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>13</v>
@@ -4903,18 +4923,18 @@
         <v>16</v>
       </c>
       <c r="D180" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>2.0231126E7</v>
+        <v>20231126</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>11</v>
@@ -4923,18 +4943,18 @@
         <v>31</v>
       </c>
       <c r="D181" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>31</v>
@@ -4943,18 +4963,18 @@
         <v>7</v>
       </c>
       <c r="D182" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>25</v>
@@ -4963,18 +4983,18 @@
         <v>13</v>
       </c>
       <c r="D183" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>22</v>
@@ -4983,18 +5003,18 @@
         <v>11</v>
       </c>
       <c r="D184" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>19</v>
@@ -5003,18 +5023,18 @@
         <v>26</v>
       </c>
       <c r="D185" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>10</v>
@@ -5023,18 +5043,18 @@
         <v>17</v>
       </c>
       <c r="D186" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>23</v>
@@ -5043,18 +5063,18 @@
         <v>32</v>
       </c>
       <c r="D187" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>28</v>
@@ -5063,18 +5083,18 @@
         <v>20</v>
       </c>
       <c r="D188" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>6</v>
@@ -5083,18 +5103,18 @@
         <v>14</v>
       </c>
       <c r="D189" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>16</v>
@@ -5103,18 +5123,18 @@
         <v>29</v>
       </c>
       <c r="D190" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>13</v>
@@ -5123,18 +5143,18 @@
         <v>6</v>
       </c>
       <c r="D191" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>29</v>
@@ -5143,18 +5163,18 @@
         <v>32</v>
       </c>
       <c r="D192" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>7</v>
@@ -5163,18 +5183,18 @@
         <v>22</v>
       </c>
       <c r="D193" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>11</v>
@@ -5183,18 +5203,18 @@
         <v>28</v>
       </c>
       <c r="D194" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>14</v>
@@ -5203,18 +5223,18 @@
         <v>10</v>
       </c>
       <c r="D195" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>26</v>
@@ -5223,18 +5243,18 @@
         <v>31</v>
       </c>
       <c r="D196" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>17</v>
@@ -5243,18 +5263,18 @@
         <v>19</v>
       </c>
       <c r="D197" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>20</v>
@@ -5263,18 +5283,18 @@
         <v>23</v>
       </c>
       <c r="D198" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>16</v>
@@ -5283,18 +5303,18 @@
         <v>25</v>
       </c>
       <c r="D199" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>10</v>
@@ -5303,18 +5323,18 @@
         <v>13</v>
       </c>
       <c r="D200" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>31</v>
@@ -5323,18 +5343,18 @@
         <v>17</v>
       </c>
       <c r="D201" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>28</v>
@@ -5343,18 +5363,18 @@
         <v>7</v>
       </c>
       <c r="D202" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>22</v>
@@ -5363,18 +5383,18 @@
         <v>26</v>
       </c>
       <c r="D203" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>23</v>
@@ -5383,18 +5403,18 @@
         <v>11</v>
       </c>
       <c r="D204" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>19</v>
@@ -5403,18 +5423,18 @@
         <v>14</v>
       </c>
       <c r="D205" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>32</v>
@@ -5423,18 +5443,18 @@
         <v>20</v>
       </c>
       <c r="D206" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>25</v>
@@ -5443,18 +5463,18 @@
         <v>29</v>
       </c>
       <c r="D207" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>6</v>
@@ -5463,18 +5483,18 @@
         <v>16</v>
       </c>
       <c r="D208" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>29</v>
@@ -5483,18 +5503,18 @@
         <v>20</v>
       </c>
       <c r="D209" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>7</v>
@@ -5503,18 +5523,18 @@
         <v>23</v>
       </c>
       <c r="D210" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>11</v>
@@ -5523,18 +5543,18 @@
         <v>32</v>
       </c>
       <c r="D211" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>16</v>
@@ -5543,18 +5563,18 @@
         <v>10</v>
       </c>
       <c r="D212" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>14</v>
@@ -5563,18 +5583,18 @@
         <v>31</v>
       </c>
       <c r="D213" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>25</v>
@@ -5583,18 +5603,18 @@
         <v>6</v>
       </c>
       <c r="D214" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>13</v>
@@ -5603,18 +5623,18 @@
         <v>19</v>
       </c>
       <c r="D215" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>17</v>
@@ -5623,18 +5643,18 @@
         <v>22</v>
       </c>
       <c r="D216" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>26</v>
@@ -5643,18 +5663,18 @@
         <v>28</v>
       </c>
       <c r="D217" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>23</v>
@@ -5663,18 +5683,18 @@
         <v>26</v>
       </c>
       <c r="D218" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>32</v>
@@ -5683,18 +5703,18 @@
         <v>7</v>
       </c>
       <c r="D219" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>28</v>
@@ -5703,18 +5723,18 @@
         <v>17</v>
       </c>
       <c r="D220" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>22</v>
@@ -5723,18 +5743,18 @@
         <v>14</v>
       </c>
       <c r="D221" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>31</v>
@@ -5743,18 +5763,18 @@
         <v>13</v>
       </c>
       <c r="D222" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>20</v>
@@ -5763,18 +5783,18 @@
         <v>11</v>
       </c>
       <c r="D223" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>19</v>
@@ -5783,18 +5803,18 @@
         <v>16</v>
       </c>
       <c r="D224" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>10</v>
@@ -5803,18 +5823,18 @@
         <v>25</v>
       </c>
       <c r="D225" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>6</v>
@@ -5823,18 +5843,18 @@
         <v>29</v>
       </c>
       <c r="D226" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>14</v>
@@ -5843,18 +5863,18 @@
         <v>28</v>
       </c>
       <c r="D227" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>26</v>
@@ -5863,18 +5883,18 @@
         <v>32</v>
       </c>
       <c r="D228" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>17</v>
@@ -5883,18 +5903,18 @@
         <v>23</v>
       </c>
       <c r="D229" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>7</v>
@@ -5903,18 +5923,18 @@
         <v>20</v>
       </c>
       <c r="D230" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>13</v>
@@ -5923,18 +5943,18 @@
         <v>22</v>
       </c>
       <c r="D231" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>6</v>
@@ -5943,18 +5963,18 @@
         <v>10</v>
       </c>
       <c r="D232" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>25</v>
@@ -5963,18 +5983,18 @@
         <v>19</v>
       </c>
       <c r="D233" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>29</v>
@@ -5983,18 +6003,18 @@
         <v>11</v>
       </c>
       <c r="D234" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>16</v>
@@ -6003,18 +6023,18 @@
         <v>31</v>
       </c>
       <c r="D235" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>23</v>
@@ -6023,18 +6043,18 @@
         <v>14</v>
       </c>
       <c r="D236" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>32</v>
@@ -6043,18 +6063,18 @@
         <v>17</v>
       </c>
       <c r="D237" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>20</v>
@@ -6063,18 +6083,18 @@
         <v>26</v>
       </c>
       <c r="D238" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>28</v>
@@ -6083,18 +6103,18 @@
         <v>13</v>
       </c>
       <c r="D239" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>31</v>
@@ -6103,18 +6123,18 @@
         <v>25</v>
       </c>
       <c r="D240" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>22</v>
@@ -6123,18 +6143,18 @@
         <v>16</v>
       </c>
       <c r="D241" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>11</v>
@@ -6143,18 +6163,18 @@
         <v>7</v>
       </c>
       <c r="D242" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>19</v>
@@ -6163,18 +6183,18 @@
         <v>6</v>
       </c>
       <c r="D243" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>10</v>
@@ -6183,18 +6203,18 @@
         <v>29</v>
       </c>
       <c r="D244" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>13</v>
@@ -6203,18 +6223,18 @@
         <v>23</v>
       </c>
       <c r="D245" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>14</v>
@@ -6223,18 +6243,18 @@
         <v>32</v>
       </c>
       <c r="D246" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>25</v>
@@ -6243,18 +6263,18 @@
         <v>22</v>
       </c>
       <c r="D247" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>17</v>
@@ -6263,18 +6283,18 @@
         <v>20</v>
       </c>
       <c r="D248" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>26</v>
@@ -6283,18 +6303,18 @@
         <v>11</v>
       </c>
       <c r="D249" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>10</v>
@@ -6303,18 +6323,18 @@
         <v>19</v>
       </c>
       <c r="D250" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>16</v>
@@ -6323,18 +6343,18 @@
         <v>28</v>
       </c>
       <c r="D251" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>29</v>
@@ -6343,18 +6363,18 @@
         <v>7</v>
       </c>
       <c r="D252" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>6</v>
@@ -6363,18 +6383,18 @@
         <v>31</v>
       </c>
       <c r="D253" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>20</v>
@@ -6383,18 +6403,18 @@
         <v>14</v>
       </c>
       <c r="D254" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>11</v>
@@ -6403,18 +6423,18 @@
         <v>17</v>
       </c>
       <c r="D255" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>7</v>
@@ -6423,18 +6443,18 @@
         <v>26</v>
       </c>
       <c r="D256" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="257" ht="15.75" customHeight="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>31</v>
@@ -6443,18 +6463,18 @@
         <v>10</v>
       </c>
       <c r="D257" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>23</v>
@@ -6463,18 +6483,18 @@
         <v>16</v>
       </c>
       <c r="D258" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="259" ht="15.75" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>19</v>
@@ -6483,18 +6503,18 @@
         <v>29</v>
       </c>
       <c r="D259" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="260" ht="15.75" customHeight="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>28</v>
@@ -6503,18 +6523,18 @@
         <v>25</v>
       </c>
       <c r="D260" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="261" ht="15.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>32</v>
@@ -6523,18 +6543,18 @@
         <v>13</v>
       </c>
       <c r="D261" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="262" ht="15.75" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>22</v>
@@ -6543,18 +6563,18 @@
         <v>6</v>
       </c>
       <c r="D262" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="263" ht="15.75" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>13</v>
@@ -6563,18 +6583,18 @@
         <v>20</v>
       </c>
       <c r="D263" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="264" ht="15.75" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>14</v>
@@ -6583,18 +6603,18 @@
         <v>11</v>
       </c>
       <c r="D264" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="265" ht="15.75" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>25</v>
@@ -6603,18 +6623,18 @@
         <v>23</v>
       </c>
       <c r="D265" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="266" ht="15.75" customHeight="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>16</v>
@@ -6623,18 +6643,18 @@
         <v>32</v>
       </c>
       <c r="D266" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E266" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="267" ht="15.75" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>19</v>
@@ -6643,18 +6663,18 @@
         <v>31</v>
       </c>
       <c r="D267" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="268" ht="15.75" customHeight="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>17</v>
@@ -6663,18 +6683,18 @@
         <v>7</v>
       </c>
       <c r="D268" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="269" ht="15.75" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>6</v>
@@ -6683,18 +6703,18 @@
         <v>28</v>
       </c>
       <c r="D269" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="270" ht="15.75" customHeight="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>10</v>
@@ -6703,18 +6723,18 @@
         <v>22</v>
       </c>
       <c r="D270" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="271" ht="15.75" customHeight="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>26</v>
@@ -6723,18 +6743,18 @@
         <v>29</v>
       </c>
       <c r="D271" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="272" ht="15.75" customHeight="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>11</v>
@@ -6743,18 +6763,18 @@
         <v>13</v>
       </c>
       <c r="D272" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="273" ht="15.75" customHeight="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>32</v>
@@ -6763,18 +6783,18 @@
         <v>25</v>
       </c>
       <c r="D273" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E273" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="274" ht="15.75" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>20</v>
@@ -6783,18 +6803,18 @@
         <v>16</v>
       </c>
       <c r="D274" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E274" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="275" ht="15.75" customHeight="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>7</v>
@@ -6803,18 +6823,18 @@
         <v>14</v>
       </c>
       <c r="D275" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E275" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="276" ht="15.75" customHeight="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>22</v>
@@ -6823,18 +6843,18 @@
         <v>19</v>
       </c>
       <c r="D276" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E276" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="277" ht="15.75" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>26</v>
@@ -6843,18 +6863,18 @@
         <v>17</v>
       </c>
       <c r="D277" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E277" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="278" ht="15.75" customHeight="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>29</v>
@@ -6863,18 +6883,18 @@
         <v>31</v>
       </c>
       <c r="D278" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E278" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="279" ht="15.75" customHeight="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>28</v>
@@ -6883,18 +6903,18 @@
         <v>10</v>
       </c>
       <c r="D279" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E279" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="280" ht="15.75" customHeight="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>23</v>
@@ -6903,18 +6923,18 @@
         <v>6</v>
       </c>
       <c r="D280" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E280" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="281" ht="15.75" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>26</v>
@@ -6923,18 +6943,18 @@
         <v>14</v>
       </c>
       <c r="D281" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E281" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="282" ht="15.75" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>17</v>
@@ -6943,18 +6963,18 @@
         <v>29</v>
       </c>
       <c r="D282" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E282" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="283" ht="15.75" customHeight="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>19</v>
@@ -6963,18 +6983,18 @@
         <v>28</v>
       </c>
       <c r="D283" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="284" ht="15.75" customHeight="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>7</v>
@@ -6983,18 +7003,18 @@
         <v>13</v>
       </c>
       <c r="D284" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E284" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="285" ht="15.75" customHeight="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>25</v>
@@ -7003,18 +7023,18 @@
         <v>20</v>
       </c>
       <c r="D285" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E285" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="286" ht="15.75" customHeight="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>16</v>
@@ -7023,18 +7043,18 @@
         <v>11</v>
       </c>
       <c r="D286" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E286" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="287" ht="15.75" customHeight="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>6</v>
@@ -7043,18 +7063,18 @@
         <v>32</v>
       </c>
       <c r="D287" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E287" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="288" ht="15.75" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>31</v>
@@ -7063,18 +7083,18 @@
         <v>22</v>
       </c>
       <c r="D288" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="289" ht="15.75" customHeight="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>10</v>
@@ -7083,18 +7103,18 @@
         <v>23</v>
       </c>
       <c r="D289" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E289" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="290" ht="15.75" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>13</v>
@@ -7103,18 +7123,18 @@
         <v>17</v>
       </c>
       <c r="D290" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="291" ht="15.75" customHeight="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>14</v>
@@ -7123,18 +7143,18 @@
         <v>29</v>
       </c>
       <c r="D291" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="292" ht="15.75" customHeight="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>25</v>
@@ -7143,18 +7163,18 @@
         <v>7</v>
       </c>
       <c r="D292" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="293" ht="15.75" customHeight="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>16</v>
@@ -7163,18 +7183,18 @@
         <v>26</v>
       </c>
       <c r="D293" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E293" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="294" ht="15.75" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>19</v>
@@ -7183,18 +7203,18 @@
         <v>32</v>
       </c>
       <c r="D294" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E294" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="295" ht="15.75" customHeight="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>6</v>
@@ -7203,18 +7223,18 @@
         <v>11</v>
       </c>
       <c r="D295" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="296" ht="15.75" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>10</v>
@@ -7223,18 +7243,18 @@
         <v>20</v>
       </c>
       <c r="D296" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="297" ht="15.75" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>31</v>
@@ -7243,18 +7263,18 @@
         <v>23</v>
       </c>
       <c r="D297" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="298" ht="15.75" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>22</v>
@@ -7263,18 +7283,18 @@
         <v>28</v>
       </c>
       <c r="D298" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="299" ht="15.75" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>20</v>
@@ -7283,18 +7303,18 @@
         <v>6</v>
       </c>
       <c r="D299" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="300" ht="15.75" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>23</v>
@@ -7303,18 +7323,18 @@
         <v>19</v>
       </c>
       <c r="D300" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E300" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="301" ht="15.75" customHeight="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>32</v>
@@ -7323,18 +7343,18 @@
         <v>10</v>
       </c>
       <c r="D301" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="302" ht="15.75" customHeight="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>11</v>
@@ -7343,18 +7363,18 @@
         <v>25</v>
       </c>
       <c r="D302" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E302" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="303" ht="15.75" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>17</v>
@@ -7363,18 +7383,18 @@
         <v>14</v>
       </c>
       <c r="D303" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="304" ht="15.75" customHeight="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>13</v>
@@ -7383,18 +7403,18 @@
         <v>26</v>
       </c>
       <c r="D304" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E304" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="305" ht="15.75" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>28</v>
@@ -7403,18 +7423,18 @@
         <v>31</v>
       </c>
       <c r="D305" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="306" ht="15.75" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>7</v>
@@ -7423,18 +7443,18 @@
         <v>16</v>
       </c>
       <c r="D306" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="307" ht="15.75" customHeight="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
-        <v>2.0240101E7</v>
+        <v>20240101</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>29</v>
@@ -7443,713 +7463,711 @@
         <v>22</v>
       </c>
       <c r="D307" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="$A$1:$E$307"/>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <autoFilter ref="A1:E307" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>